--- a/src/sastadev/data/methods/TARSP Index Current.xlsx
+++ b/src/sastadev/data/methods/TARSP Index Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\sastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E75810-3B31-409B-8908-EB9B0F89935A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DD31A-C98A-44BD-9F5D-9393ACD96900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1163,9 +1163,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>//node[@cat="pp" and node[ @rel="obj1" and node[@rel="det"] ]]</t>
-  </si>
-  <si>
     <t>//node[(@cat="ap" or @cat="advp" or @cat="np" or @cat="pp" or 
   node[@rel="vc" and (@cat="inf" or @cat="ppart")]) and parent::node[count(node[@cat or @pt!="let"])&gt;1]]</t>
   </si>
@@ -1902,6 +1899,9 @@
   </si>
   <si>
     <t>voslashbij</t>
+  </si>
+  <si>
+    <t>//node[@cat="pp" and node[@rel="hd"] and node[ @rel="obj1" and node[@rel="det"] ]]</t>
   </si>
 </sst>
 </file>
@@ -2326,7 +2326,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,19 +2381,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2413,7 +2413,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2437,10 +2437,10 @@
         <v>370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>369</v>
@@ -2478,10 +2478,10 @@
         <v>369</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2498,7 +2498,7 @@
         <v>199</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
@@ -2519,7 +2519,7 @@
         <v>370</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2554,7 +2554,7 @@
         <v>370</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>191</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2592,13 +2592,13 @@
         <v>370</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2633,7 +2633,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>370</v>
@@ -2671,7 +2671,7 @@
         <v>370</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>369</v>
@@ -2709,10 +2709,10 @@
         <v>369</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2738,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2747,7 +2747,7 @@
         <v>370</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2782,7 +2782,7 @@
         <v>370</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2802,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2823,7 +2823,7 @@
         <v>370</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2858,7 +2858,7 @@
         <v>370</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>370</v>
@@ -2896,7 +2896,7 @@
         <v>370</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
@@ -2922,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -2931,7 +2931,7 @@
         <v>370</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -2951,7 +2951,7 @@
         <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>370</v>
@@ -2960,7 +2960,7 @@
         <v>370</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +2992,7 @@
         <v>369</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,10 +3009,10 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>369</v>
@@ -3030,10 +3030,10 @@
         <v>370</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
         <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3071,7 +3071,7 @@
         <v>369</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
         <v>370</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>369</v>
@@ -3138,7 +3138,7 @@
         <v>370</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>369</v>
@@ -3173,7 +3173,7 @@
         <v>370</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3193,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3205,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3214,7 +3214,7 @@
         <v>370</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
@@ -3231,7 +3231,7 @@
         <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3258,10 +3258,10 @@
         <v>370</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3293,7 @@
         <v>370</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3328,10 +3328,10 @@
         <v>370</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>369</v>
@@ -3366,7 +3366,7 @@
         <v>370</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3392,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>369</v>
@@ -3401,7 +3401,7 @@
         <v>369</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,19 +3427,19 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3474,7 +3474,7 @@
         <v>369</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>191</v>
@@ -3512,7 +3512,7 @@
         <v>370</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3529,7 +3529,7 @@
         <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>369</v>
@@ -3541,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>369</v>
@@ -3550,7 +3550,7 @@
         <v>370</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>370</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3626,7 +3626,7 @@
         <v>370</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>369</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>369</v>
@@ -3696,7 +3696,7 @@
         <v>369</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>369</v>
@@ -3731,7 +3731,7 @@
         <v>370</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,10 +3757,10 @@
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3769,7 +3769,7 @@
         <v>370</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3807,7 +3807,7 @@
         <v>370</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3842,10 +3842,10 @@
         <v>369</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
         <v>369</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3900,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>369</v>
@@ -3918,7 +3918,7 @@
         <v>370</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3938,10 +3938,10 @@
         <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>369</v>
@@ -3953,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3962,10 +3962,10 @@
         <v>370</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4000,7 +4000,7 @@
         <v>370</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -4026,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>369</v>
@@ -4035,7 +4035,7 @@
         <v>370</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4076,7 +4076,7 @@
         <v>370</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -4102,7 +4102,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>369</v>
@@ -4111,7 +4111,7 @@
         <v>370</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>191</v>
@@ -4131,7 +4131,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4140,7 +4140,7 @@
         <v>370</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>186</v>
@@ -4178,7 +4178,7 @@
         <v>370</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -4204,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>369</v>
@@ -4213,7 +4213,7 @@
         <v>370</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>370</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4286,7 @@
         <v>370</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>369</v>
@@ -4321,7 +4321,7 @@
         <v>370</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4350,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4359,7 +4359,7 @@
         <v>370</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
         <v>369</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
         <v>370</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4461,7 +4461,7 @@
         <v>370</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4502,7 +4502,7 @@
         <v>369</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4543,7 +4543,7 @@
         <v>370</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
@@ -4581,7 +4581,7 @@
         <v>370</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,10 +4616,10 @@
         <v>370</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,10 +4654,10 @@
         <v>370</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,10 +4692,10 @@
         <v>370</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>370</v>
@@ -4730,7 +4730,7 @@
         <v>369</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4771,7 +4771,7 @@
         <v>369</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4812,7 +4812,7 @@
         <v>369</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4853,7 +4853,7 @@
         <v>370</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4873,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4885,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>369</v>
@@ -4894,7 +4894,7 @@
         <v>370</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>369</v>
@@ -4935,7 +4935,7 @@
         <v>369</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -4976,7 +4976,7 @@
         <v>369</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +4996,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5008,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5017,7 +5017,7 @@
         <v>369</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,10 +5034,10 @@
         <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5055,7 +5055,7 @@
         <v>370</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5075,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5087,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5096,7 +5096,7 @@
         <v>370</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5116,7 @@
         <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>369</v>
@@ -5134,7 +5134,7 @@
         <v>370</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5166,7 @@
         <v>370</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5183,7 @@
         <v>197</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>369</v>
@@ -5201,7 +5201,7 @@
         <v>370</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>192</v>
@@ -5224,7 +5224,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5236,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5245,7 +5245,7 @@
         <v>370</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5265,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5277,7 +5277,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5286,7 +5286,7 @@
         <v>370</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5303,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5315,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>369</v>
@@ -5324,7 +5324,7 @@
         <v>370</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5359,7 @@
         <v>370</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5388,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5397,7 +5397,7 @@
         <v>370</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>369</v>
@@ -5426,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5435,7 +5435,7 @@
         <v>370</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5461,7 +5461,7 @@
         <v>370</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5499,7 +5499,7 @@
         <v>370</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5531,7 @@
         <v>370</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5563,7 @@
         <v>370</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5595,7 @@
         <v>370</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
@@ -5609,10 +5609,10 @@
         <v>199</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5633,7 +5633,7 @@
         <v>370</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5647,7 @@
         <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>369</v>
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>369</v>
@@ -5668,7 +5668,7 @@
         <v>370</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,10 +5682,10 @@
         <v>199</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>369</v>
@@ -5703,12 +5703,12 @@
         <v>370</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5717,22 +5717,22 @@
         <v>199</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>369</v>
@@ -5741,7 +5741,7 @@
         <v>370</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,7 +5758,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5767,7 +5767,7 @@
         <v>370</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5787,7 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>369</v>
@@ -5799,7 +5799,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5808,7 +5808,7 @@
         <v>369</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +5846,7 @@
         <v>369</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5869,7 +5869,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5881,7 +5881,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5890,7 +5890,7 @@
         <v>369</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5916,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>370</v>
@@ -5925,7 +5925,7 @@
         <v>369</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
@@ -5942,13 +5942,13 @@
         <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -5957,7 +5957,7 @@
         <v>370</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,7 +5989,7 @@
         <v>370</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6003,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
@@ -6027,10 +6027,10 @@
         <v>370</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6047,7 @@
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>369</v>
@@ -6059,7 +6059,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>369</v>
@@ -6068,7 +6068,7 @@
         <v>369</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6103,7 +6103,7 @@
         <v>370</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6138,7 +6138,7 @@
         <v>370</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6176,7 @@
         <v>370</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,10 +6190,10 @@
         <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>369</v>
@@ -6211,10 +6211,10 @@
         <v>370</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6234,19 +6234,19 @@
         <v>369</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,7 +6266,7 @@
         <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>369</v>
@@ -6278,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6287,7 +6287,7 @@
         <v>370</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6319,7 +6319,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6328,10 +6328,10 @@
         <v>370</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6360,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6369,10 +6369,10 @@
         <v>369</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6401,7 +6401,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6410,7 +6410,7 @@
         <v>370</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6443,7 @@
         <v>370</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>371</v>
+        <v>591</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>369</v>
@@ -6478,7 +6478,7 @@
         <v>369</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6505,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6514,10 +6514,10 @@
         <v>370</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6552,7 @@
         <v>370</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6566,7 @@
         <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>369</v>
@@ -6587,7 +6587,7 @@
         <v>369</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6622,10 +6622,10 @@
         <v>370</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,7 +6657,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>369</v>
@@ -6666,7 +6666,7 @@
         <v>370</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>199</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -6694,7 +6694,7 @@
         <v>370</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6719,7 @@
         <v>370</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6754,7 @@
         <v>370</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>191</v>
@@ -6777,7 +6777,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6789,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6798,7 +6798,7 @@
         <v>370</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>369</v>
@@ -6833,7 +6833,7 @@
         <v>370</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>370</v>
@@ -6868,7 +6868,7 @@
         <v>369</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,7 +6903,7 @@
         <v>369</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6944,7 +6944,7 @@
         <v>370</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -6985,10 +6985,10 @@
         <v>370</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7029,7 +7029,7 @@
         <v>369</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7052,7 +7052,7 @@
         <v>188</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>370</v>
@@ -7061,7 +7061,7 @@
         <v>370</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>190</v>
@@ -7090,7 +7090,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7099,7 +7099,7 @@
         <v>370</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7131,7 @@
         <v>370</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,7 +7163,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7172,7 +7172,7 @@
         <v>370</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7213,7 +7213,7 @@
         <v>370</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7233,7 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
@@ -7248,7 +7248,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7257,10 +7257,10 @@
         <v>370</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7277,7 @@
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
@@ -7290,7 +7290,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>369</v>
@@ -7299,7 +7299,7 @@
         <v>370</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7338,7 +7338,7 @@
         <v>370</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7371,7 +7371,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>369</v>
@@ -7380,7 +7380,7 @@
         <v>370</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7400,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7418,7 +7418,7 @@
         <v>370</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>369</v>
@@ -7453,7 +7453,7 @@
         <v>370</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,10 +7482,10 @@
         <v>370</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
@@ -7511,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>369</v>
@@ -7520,7 +7520,7 @@
         <v>370</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7546,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7555,7 +7555,7 @@
         <v>369</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7590,7 +7590,7 @@
         <v>370</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>203</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>85</v>
@@ -7607,51 +7607,51 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q142" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q142" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>369</v>
@@ -7660,97 +7660,97 @@
         <v>370</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q145" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>369</v>
@@ -7759,33 +7759,33 @@
         <v>370</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="H147" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>369</v>
@@ -7794,34 +7794,34 @@
         <v>370</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="L148" s="2" t="s">
         <v>369</v>
       </c>
@@ -7829,28 +7829,28 @@
         <v>370</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="L149" s="2" t="s">
         <v>370</v>
       </c>
@@ -7858,33 +7858,33 @@
         <v>369</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>369</v>
@@ -7893,30 +7893,30 @@
         <v>370</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>369</v>
@@ -7925,30 +7925,30 @@
         <v>370</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>369</v>
@@ -7957,30 +7957,30 @@
         <v>370</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>369</v>
@@ -7989,27 +7989,27 @@
         <v>370</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>369</v>
@@ -8018,24 +8018,24 @@
         <v>370</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>369</v>
@@ -8044,7 +8044,7 @@
         <v>370</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/src/sastadev/data/methods/TARSP Index Current.xlsx
+++ b/src/sastadev/data/methods/TARSP Index Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DD31A-C98A-44BD-9F5D-9393ACD96900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBAE2E-28B9-4494-85FA-4F8755F38AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="593">
   <si>
     <t>Item</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>//node[@cat="np" and
     node[@pt="lid" and @rel="det" and @lemma="het"] and
     node[@rel="hd" and @pt="n"]]</t>
-  </si>
-  <si>
-    <t>//node[@lemma="hij" and @pt="vnw"]</t>
   </si>
   <si>
     <t>PV-loos</t>
@@ -1687,12 +1684,6 @@
   </si>
   <si>
     <t>//node[@cat="np" and node[@rel="det" and @lemma="de"] and count(node)=2]</t>
-  </si>
-  <si>
-    <t>//node[(@pt="ww" and @rel="hd" and 
-           (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
-       parent::node[node[@rel="vc" and (@cat="ppart" or (@pt="ww" and @wvorm="vd"))]
-       ]) or %robusthwwvd%]</t>
   </si>
   <si>
     <t>v.u.soc.divers,vu divers,vu soc divers, DIV</t>
@@ -1902,6 +1893,18 @@
   </si>
   <si>
     <t>//node[@cat="pp" and node[@rel="hd"] and node[ @rel="obj1" and node[@rel="det"] ]]</t>
+  </si>
+  <si>
+    <t>//node[(@lemma="hij" or @lemma="ie")  and @pt="vnw"]</t>
+  </si>
+  <si>
+    <t>//node[@cat="whq" and node[@cat="sv1"] and count(node)=1]</t>
+  </si>
+  <si>
+    <t>//node[(@pt="ww" and @rel="hd" and 
+           (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
+       parent::node[node[@rel="vc" and ((@cat="ppart" and node[@rel="hd"]) or (@pt="ww" and @wvorm="vd"))]
+       ]) or %robusthwwvd%]</t>
   </si>
 </sst>
 </file>
@@ -2322,11 +2325,11 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,19 +2384,19 @@
         <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>160</v>
@@ -2413,7 +2416,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2430,6 +2433,9 @@
       <c r="J2" s="2">
         <v>3</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>369</v>
       </c>
@@ -2437,10 +2443,10 @@
         <v>370</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2469,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>369</v>
@@ -2478,10 +2484,10 @@
         <v>369</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2498,7 +2504,7 @@
         <v>199</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
@@ -2519,7 +2525,7 @@
         <v>370</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2554,7 +2560,7 @@
         <v>370</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>191</v>
@@ -2583,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2592,13 +2598,13 @@
         <v>370</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>375</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -2624,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2633,7 +2639,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
@@ -2662,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>370</v>
@@ -2671,7 +2677,7 @@
         <v>370</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -2700,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>369</v>
@@ -2709,10 +2715,10 @@
         <v>369</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2738,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2747,7 +2753,7 @@
         <v>370</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2782,7 +2788,7 @@
         <v>370</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2802,7 +2808,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2814,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2823,7 +2829,7 @@
         <v>370</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2858,7 +2864,7 @@
         <v>370</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2887,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>370</v>
@@ -2896,7 +2902,7 @@
         <v>370</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
@@ -2922,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -2931,7 +2937,7 @@
         <v>370</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -2951,7 +2957,7 @@
         <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>370</v>
@@ -2960,7 +2966,7 @@
         <v>370</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +2998,7 @@
         <v>369</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,10 +3015,10 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>369</v>
@@ -3030,10 +3036,10 @@
         <v>370</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3047,7 +3053,7 @@
         <v>199</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
@@ -3062,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3071,7 +3077,7 @@
         <v>369</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3109,7 @@
         <v>370</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>369</v>
@@ -3138,7 +3144,7 @@
         <v>370</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>369</v>
@@ -3173,7 +3179,7 @@
         <v>370</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3199,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3205,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3214,7 +3220,7 @@
         <v>370</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
@@ -3231,7 +3237,7 @@
         <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
@@ -3249,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3258,10 +3264,10 @@
         <v>370</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3299,7 @@
         <v>370</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3319,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3328,10 +3334,10 @@
         <v>370</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>369</v>
@@ -3366,7 +3372,7 @@
         <v>370</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>369</v>
@@ -3401,7 +3407,7 @@
         <v>369</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,19 +3433,19 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3474,7 +3480,7 @@
         <v>369</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>191</v>
@@ -3512,7 +3518,7 @@
         <v>370</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3550,7 +3556,7 @@
         <v>370</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3597,7 @@
         <v>370</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3626,7 +3632,7 @@
         <v>370</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3667,7 @@
         <v>369</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -3696,7 +3702,7 @@
         <v>369</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>384</v>
+        <v>590</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>369</v>
@@ -3731,7 +3737,7 @@
         <v>370</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3766,7 @@
         <v>379</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3769,7 +3775,7 @@
         <v>370</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
@@ -3798,7 +3804,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3807,7 +3813,7 @@
         <v>370</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3839,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3842,10 +3848,10 @@
         <v>369</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3886,7 @@
         <v>369</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3906,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>369</v>
@@ -3918,7 +3924,7 @@
         <v>370</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>163</v>
@@ -3938,10 +3944,10 @@
         <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>369</v>
@@ -3953,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3962,7 +3968,7 @@
         <v>370</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>374</v>
@@ -3991,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4000,7 +4006,7 @@
         <v>370</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -4026,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>369</v>
@@ -4035,7 +4041,7 @@
         <v>370</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4076,7 +4082,7 @@
         <v>370</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -4102,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>369</v>
@@ -4111,7 +4117,7 @@
         <v>370</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>191</v>
@@ -4131,7 +4137,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4140,7 +4146,7 @@
         <v>370</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>186</v>
@@ -4178,7 +4184,7 @@
         <v>370</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -4204,7 +4210,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>369</v>
@@ -4213,7 +4219,7 @@
         <v>370</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,7 +4254,7 @@
         <v>370</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4292,7 @@
         <v>370</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>369</v>
@@ -4321,7 +4327,7 @@
         <v>370</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4359,7 +4365,7 @@
         <v>370</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,7 +4400,7 @@
         <v>369</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4432,7 @@
         <v>370</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4461,7 +4467,7 @@
         <v>370</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4502,7 +4508,7 @@
         <v>369</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4543,7 +4549,7 @@
         <v>370</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4566,7 @@
         <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>67</v>
@@ -4581,7 +4587,7 @@
         <v>370</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,10 +4622,10 @@
         <v>370</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,10 +4660,10 @@
         <v>370</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,10 +4698,10 @@
         <v>370</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>370</v>
@@ -4730,7 +4736,7 @@
         <v>369</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4771,7 +4777,7 @@
         <v>369</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4812,7 +4818,7 @@
         <v>369</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4853,7 +4859,7 @@
         <v>370</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4879,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4885,7 +4891,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>369</v>
@@ -4894,7 +4900,7 @@
         <v>370</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>369</v>
@@ -4935,7 +4941,7 @@
         <v>369</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -4976,7 +4982,7 @@
         <v>369</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +5002,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5008,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5017,7 +5023,7 @@
         <v>369</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,10 +5040,10 @@
         <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5055,7 +5061,7 @@
         <v>370</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5081,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5087,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5096,7 +5102,7 @@
         <v>370</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5122,7 @@
         <v>195</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>369</v>
@@ -5134,7 +5140,7 @@
         <v>370</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5172,7 @@
         <v>370</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5189,7 @@
         <v>197</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>369</v>
@@ -5201,7 +5207,7 @@
         <v>370</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>192</v>
@@ -5224,7 +5230,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5236,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5245,7 +5251,7 @@
         <v>370</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5277,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5286,7 +5292,7 @@
         <v>370</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5309,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5315,7 +5321,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>369</v>
@@ -5324,7 +5330,7 @@
         <v>370</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5365,7 @@
         <v>370</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>168</v>
@@ -5388,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5397,7 +5403,7 @@
         <v>370</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -5414,7 +5420,7 @@
         <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>369</v>
@@ -5426,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5435,7 +5441,7 @@
         <v>370</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5461,7 +5467,7 @@
         <v>370</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -5499,7 +5505,7 @@
         <v>370</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5537,7 @@
         <v>370</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5569,7 @@
         <v>370</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5601,7 @@
         <v>370</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
@@ -5609,10 +5615,10 @@
         <v>199</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5624,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5633,7 +5639,7 @@
         <v>370</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5653,7 @@
         <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>369</v>
@@ -5659,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>369</v>
@@ -5668,7 +5674,7 @@
         <v>370</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,10 +5688,10 @@
         <v>199</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>369</v>
@@ -5703,12 +5709,12 @@
         <v>370</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5717,22 +5723,22 @@
         <v>199</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>369</v>
@@ -5741,7 +5747,7 @@
         <v>370</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,7 +5764,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5767,7 +5773,7 @@
         <v>370</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5793,7 @@
         <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>369</v>
@@ -5799,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5808,7 +5814,7 @@
         <v>369</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +5852,7 @@
         <v>369</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>161</v>
@@ -5869,7 +5875,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5881,7 +5887,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5890,7 +5896,7 @@
         <v>369</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>370</v>
@@ -5925,7 +5931,7 @@
         <v>369</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
@@ -5942,13 +5948,13 @@
         <v>369</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -5957,7 +5963,7 @@
         <v>370</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,7 +5995,7 @@
         <v>370</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6009,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>144</v>
@@ -6027,10 +6033,10 @@
         <v>370</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6053,7 @@
         <v>155</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>369</v>
@@ -6059,7 +6065,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>369</v>
@@ -6068,7 +6074,7 @@
         <v>369</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6100,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6103,7 +6109,7 @@
         <v>370</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6135,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6138,7 +6144,7 @@
         <v>370</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6182,7 @@
         <v>370</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,10 +6196,10 @@
         <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>369</v>
@@ -6211,10 +6217,10 @@
         <v>370</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>172</v>
@@ -6243,7 +6249,7 @@
         <v>370</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>373</v>
@@ -6278,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6287,7 +6293,7 @@
         <v>370</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>165</v>
@@ -6319,7 +6325,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6328,10 +6334,10 @@
         <v>370</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6369,10 +6375,10 @@
         <v>369</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>165</v>
@@ -6401,7 +6407,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6410,7 +6416,7 @@
         <v>370</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6449,7 @@
         <v>370</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>369</v>
@@ -6478,7 +6484,7 @@
         <v>369</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6505,7 +6511,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6514,10 +6520,10 @@
         <v>370</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6558,7 @@
         <v>370</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6572,7 @@
         <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>369</v>
@@ -6587,7 +6593,7 @@
         <v>369</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6622,10 +6628,10 @@
         <v>370</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,7 +6663,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>369</v>
@@ -6666,7 +6672,7 @@
         <v>370</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6683,7 @@
         <v>199</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -6694,7 +6700,7 @@
         <v>370</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6725,7 @@
         <v>370</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6760,7 @@
         <v>370</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>191</v>
@@ -6777,7 +6783,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6789,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6798,7 +6804,7 @@
         <v>370</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>369</v>
@@ -6833,7 +6839,7 @@
         <v>370</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>370</v>
@@ -6868,7 +6874,7 @@
         <v>369</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,7 +6909,7 @@
         <v>369</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6944,7 +6950,7 @@
         <v>370</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,7 +6982,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -6985,10 +6991,10 @@
         <v>370</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,7 +7026,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7029,7 +7035,7 @@
         <v>369</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7061,7 +7067,7 @@
         <v>370</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>190</v>
@@ -7090,7 +7096,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7099,7 +7105,7 @@
         <v>370</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7137,7 @@
         <v>370</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,7 +7169,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7172,7 +7178,7 @@
         <v>370</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7210,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7213,7 +7219,7 @@
         <v>370</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7239,7 @@
         <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
@@ -7248,7 +7254,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7257,10 +7263,10 @@
         <v>370</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7283,7 @@
         <v>107</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
@@ -7290,7 +7296,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>369</v>
@@ -7299,7 +7305,7 @@
         <v>370</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7326,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7338,7 +7344,7 @@
         <v>370</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7371,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>369</v>
@@ -7380,7 +7386,7 @@
         <v>370</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7406,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7418,7 +7424,7 @@
         <v>370</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>369</v>
@@ -7453,7 +7459,7 @@
         <v>370</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,10 +7488,10 @@
         <v>370</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
@@ -7511,7 +7517,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>369</v>
@@ -7520,7 +7526,7 @@
         <v>370</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
@@ -7546,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7555,7 +7561,7 @@
         <v>369</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
@@ -7590,7 +7596,7 @@
         <v>370</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>203</v>
@@ -7607,7 +7613,7 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
@@ -7616,7 +7622,7 @@
         <v>377</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>370</v>
@@ -7625,7 +7631,7 @@
         <v>370</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q142" s="12" t="s">
         <v>378</v>
@@ -7633,25 +7639,25 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>369</v>
@@ -7660,97 +7666,97 @@
         <v>370</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q144" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q145" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>369</v>
@@ -7759,33 +7765,33 @@
         <v>370</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="H147" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>379</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>369</v>
@@ -7794,34 +7800,34 @@
         <v>370</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="L148" s="2" t="s">
         <v>369</v>
       </c>
@@ -7829,28 +7835,28 @@
         <v>370</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="L149" s="2" t="s">
         <v>370</v>
       </c>
@@ -7858,33 +7864,33 @@
         <v>369</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>369</v>
@@ -7893,30 +7899,30 @@
         <v>370</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>369</v>
@@ -7925,30 +7931,30 @@
         <v>370</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>369</v>
@@ -7957,30 +7963,30 @@
         <v>370</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>369</v>
@@ -7989,27 +7995,27 @@
         <v>370</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>369</v>
@@ -8018,24 +8024,24 @@
         <v>370</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>369</v>
@@ -8044,7 +8050,7 @@
         <v>370</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/src/sastadev/data/methods/TARSP Index Current.xlsx
+++ b/src/sastadev/data/methods/TARSP Index Current.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBAE2E-28B9-4494-85FA-4F8755F38AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926554C8-974B-46AE-ADF1-DF9D945A5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$155</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="597">
   <si>
     <t>Item</t>
   </si>
@@ -1473,12 +1473,6 @@
   </si>
   <si>
     <t>Bijzin z Verb</t>
-  </si>
-  <si>
-    <t>special1</t>
-  </si>
-  <si>
-    <t>special2</t>
   </si>
   <si>
     <t>star2</t>
@@ -1905,6 +1899,24 @@
            (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
        parent::node[node[@rel="vc" and ((@cat="ppart" and node[@rel="hd"]) or (@pt="ww" and @wvorm="vd"))]
        ]) or %robusthwwvd%]</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>unused1</t>
+  </si>
+  <si>
+    <t>unused2</t>
+  </si>
+  <si>
+    <t>tarsp2005</t>
   </si>
 </sst>
 </file>
@@ -2322,14 +2334,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R155"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2345,11 +2358,11 @@
     <col min="10" max="10" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.21875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="19" width="16.21875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2393,16 +2406,25 @@
         <v>459</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>471</v>
+        <v>591</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>472</v>
+        <v>592</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -2416,7 +2438,7 @@
         <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -2434,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>369</v>
@@ -2446,10 +2468,10 @@
         <v>460</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -2486,11 +2508,11 @@
       <c r="N3" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -2527,8 +2549,11 @@
       <c r="N4" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q4" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
@@ -2562,11 +2587,11 @@
       <c r="N5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>233</v>
       </c>
@@ -2589,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>369</v>
@@ -2600,14 +2625,14 @@
       <c r="N6" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>234</v>
       </c>
@@ -2630,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>370</v>
@@ -2642,7 +2667,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>235</v>
       </c>
@@ -2680,7 +2705,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>236</v>
       </c>
@@ -2717,11 +2742,11 @@
       <c r="N9" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>237</v>
       </c>
@@ -2744,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>369</v>
@@ -2756,7 +2781,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>238</v>
       </c>
@@ -2791,7 +2816,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>239</v>
       </c>
@@ -2808,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>369</v>
@@ -2820,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>369</v>
@@ -2832,7 +2857,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>240</v>
       </c>
@@ -2867,7 +2892,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -2893,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>370</v>
@@ -2905,7 +2930,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>242</v>
       </c>
@@ -2928,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>369</v>
@@ -2940,7 +2965,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>243</v>
       </c>
@@ -2957,7 +2982,7 @@
         <v>369</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>370</v>
@@ -2969,7 +2994,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>244</v>
       </c>
@@ -3001,7 +3026,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>245</v>
       </c>
@@ -3039,10 +3064,10 @@
         <v>460</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>246</v>
       </c>
@@ -3068,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
@@ -3080,7 +3105,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>247</v>
       </c>
@@ -3112,7 +3137,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>248</v>
       </c>
@@ -3135,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>369</v>
@@ -3147,7 +3172,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>249</v>
       </c>
@@ -3170,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>369</v>
@@ -3182,7 +3207,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>250</v>
       </c>
@@ -3199,7 +3224,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>369</v>
@@ -3211,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>369</v>
@@ -3223,7 +3248,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -3255,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>369</v>
@@ -3266,11 +3291,11 @@
       <c r="N24" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>252</v>
       </c>
@@ -3302,7 +3327,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>253</v>
       </c>
@@ -3325,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>369</v>
@@ -3336,11 +3361,11 @@
       <c r="N26" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>254</v>
       </c>
@@ -3375,7 +3400,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>255</v>
       </c>
@@ -3410,7 +3435,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -3444,11 +3469,11 @@
       <c r="N29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>257</v>
       </c>
@@ -3471,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>369</v>
@@ -3482,11 +3507,11 @@
       <c r="N30" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>258</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>259</v>
       </c>
@@ -3559,7 +3584,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>260</v>
       </c>
@@ -3600,7 +3625,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>261</v>
       </c>
@@ -3623,7 +3648,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>369</v>
@@ -3635,7 +3660,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>262</v>
       </c>
@@ -3670,7 +3695,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>263</v>
       </c>
@@ -3705,7 +3730,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -3728,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>369</v>
@@ -3740,7 +3765,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>265</v>
       </c>
@@ -3766,7 +3791,7 @@
         <v>379</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>369</v>
@@ -3778,7 +3803,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>266</v>
       </c>
@@ -3804,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>369</v>
@@ -3816,7 +3841,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -3839,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>369</v>
@@ -3850,11 +3875,11 @@
       <c r="N40" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T40" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>268</v>
       </c>
@@ -3889,7 +3914,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>269</v>
       </c>
@@ -3926,11 +3951,11 @@
       <c r="N42" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>270</v>
       </c>
@@ -3959,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>369</v>
@@ -3970,11 +3995,11 @@
       <c r="N43" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>271</v>
       </c>
@@ -3997,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>369</v>
@@ -4009,7 +4034,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -4032,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>369</v>
@@ -4044,7 +4069,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
@@ -4073,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>369</v>
@@ -4085,7 +4110,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>274</v>
       </c>
@@ -4108,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>369</v>
@@ -4119,11 +4144,11 @@
       <c r="N47" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="T47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>275</v>
       </c>
@@ -4137,7 +4162,7 @@
         <v>370</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>370</v>
@@ -4148,11 +4173,11 @@
       <c r="N48" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="T48" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>276</v>
       </c>
@@ -4187,7 +4212,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>277</v>
       </c>
@@ -4222,7 +4247,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>278</v>
       </c>
@@ -4257,7 +4282,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>279</v>
       </c>
@@ -4295,7 +4320,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>280</v>
       </c>
@@ -4318,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>369</v>
@@ -4330,7 +4355,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>281</v>
       </c>
@@ -4356,7 +4381,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>369</v>
@@ -4368,7 +4393,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>282</v>
       </c>
@@ -4403,7 +4428,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -4434,8 +4459,11 @@
       <c r="N56" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q56" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>284</v>
       </c>
@@ -4458,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>370</v>
@@ -4470,7 +4498,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
@@ -4499,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>369</v>
@@ -4511,7 +4539,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>286</v>
       </c>
@@ -4540,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>369</v>
@@ -4552,7 +4580,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>287</v>
       </c>
@@ -4589,8 +4617,11 @@
       <c r="N60" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q60" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>288</v>
       </c>
@@ -4624,11 +4655,11 @@
       <c r="N61" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>289</v>
       </c>
@@ -4662,11 +4693,11 @@
       <c r="N62" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="T62" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>290</v>
       </c>
@@ -4700,11 +4731,11 @@
       <c r="N63" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="T63" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>291</v>
       </c>
@@ -4739,7 +4770,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>292</v>
       </c>
@@ -4768,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>369</v>
@@ -4780,7 +4811,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>293</v>
       </c>
@@ -4809,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>369</v>
@@ -4821,7 +4852,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>294</v>
       </c>
@@ -4850,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>369</v>
@@ -4862,7 +4893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -4879,7 +4910,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>369</v>
@@ -4891,7 +4922,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>369</v>
@@ -4903,7 +4934,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -4932,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>369</v>
@@ -4944,7 +4975,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>297</v>
       </c>
@@ -4973,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>369</v>
@@ -4985,7 +5016,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>298</v>
       </c>
@@ -5002,7 +5033,7 @@
         <v>48</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>369</v>
@@ -5014,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>369</v>
@@ -5026,7 +5057,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>299</v>
       </c>
@@ -5043,7 +5074,7 @@
         <v>423</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>369</v>
@@ -5064,7 +5095,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -5081,7 +5112,7 @@
         <v>194</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>369</v>
@@ -5093,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>369</v>
@@ -5105,7 +5136,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>301</v>
       </c>
@@ -5142,8 +5173,11 @@
       <c r="N74" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q74" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>302</v>
       </c>
@@ -5174,8 +5208,11 @@
       <c r="N75" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q75" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
@@ -5209,11 +5246,11 @@
       <c r="N76" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="T76" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>304</v>
       </c>
@@ -5230,7 +5267,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>369</v>
@@ -5242,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>369</v>
@@ -5254,7 +5291,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>305</v>
       </c>
@@ -5271,7 +5308,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>369</v>
@@ -5283,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>369</v>
@@ -5295,7 +5332,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>306</v>
       </c>
@@ -5309,7 +5346,7 @@
         <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>369</v>
@@ -5333,7 +5370,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>307</v>
       </c>
@@ -5367,11 +5404,11 @@
       <c r="N80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>308</v>
       </c>
@@ -5394,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>369</v>
@@ -5406,7 +5443,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>309</v>
       </c>
@@ -5432,7 +5469,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>369</v>
@@ -5444,7 +5481,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>310</v>
       </c>
@@ -5470,7 +5507,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>311</v>
       </c>
@@ -5507,8 +5544,11 @@
       <c r="N84" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q84" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>312</v>
       </c>
@@ -5540,7 +5580,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -5572,7 +5612,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>314</v>
       </c>
@@ -5604,7 +5644,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="216" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>315</v>
       </c>
@@ -5618,7 +5658,7 @@
         <v>399</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>369</v>
@@ -5630,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>369</v>
@@ -5642,7 +5682,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>316</v>
       </c>
@@ -5665,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>369</v>
@@ -5677,7 +5717,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>317</v>
       </c>
@@ -5712,7 +5752,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>404</v>
       </c>
@@ -5726,7 +5766,7 @@
         <v>400</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>369</v>
@@ -5750,7 +5790,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
@@ -5764,7 +5804,7 @@
         <v>369</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>370</v>
@@ -5776,7 +5816,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>319</v>
       </c>
@@ -5805,7 +5845,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>369</v>
@@ -5817,7 +5857,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>320</v>
       </c>
@@ -5854,11 +5894,11 @@
       <c r="N94" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q94" s="2" t="s">
+      <c r="T94" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>321</v>
       </c>
@@ -5875,7 +5915,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>369</v>
@@ -5887,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>369</v>
@@ -5899,7 +5939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>322</v>
       </c>
@@ -5934,7 +5974,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>323</v>
       </c>
@@ -5954,7 +5994,7 @@
         <v>469</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>369</v>
@@ -5966,7 +6006,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>324</v>
       </c>
@@ -5997,8 +6037,11 @@
       <c r="N98" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q98" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>325</v>
       </c>
@@ -6036,10 +6079,10 @@
         <v>460</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>326</v>
       </c>
@@ -6077,7 +6120,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>327</v>
       </c>
@@ -6100,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>369</v>
@@ -6112,7 +6155,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>328</v>
       </c>
@@ -6135,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>369</v>
@@ -6147,7 +6190,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>329</v>
       </c>
@@ -6185,7 +6228,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>330</v>
       </c>
@@ -6220,13 +6263,16 @@
         <v>460</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Q104" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="T104" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
@@ -6251,11 +6297,11 @@
       <c r="N105" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q105" s="2" t="s">
+      <c r="T105" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>332</v>
       </c>
@@ -6284,7 +6330,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>369</v>
@@ -6295,11 +6341,11 @@
       <c r="N106" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q106" s="2" t="s">
+      <c r="T106" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>333</v>
       </c>
@@ -6325,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>369</v>
@@ -6336,11 +6382,11 @@
       <c r="N107" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q107" s="2" t="s">
+      <c r="T107" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>334</v>
       </c>
@@ -6366,7 +6412,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>369</v>
@@ -6378,13 +6424,13 @@
         <v>460</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q108" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="T108" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
@@ -6407,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>369</v>
@@ -6419,7 +6465,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>336</v>
       </c>
@@ -6451,8 +6497,11 @@
       <c r="N110" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q110" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>337</v>
       </c>
@@ -6475,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>369</v>
@@ -6487,7 +6536,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>338</v>
       </c>
@@ -6511,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>369</v>
@@ -6522,11 +6571,11 @@
       <c r="N112" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q112" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T112" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>339</v>
       </c>
@@ -6561,7 +6610,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>340</v>
       </c>
@@ -6572,7 +6621,7 @@
         <v>199</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>369</v>
@@ -6596,7 +6645,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>341</v>
       </c>
@@ -6619,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>369</v>
@@ -6630,11 +6679,11 @@
       <c r="N115" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q115" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T115" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>342</v>
       </c>
@@ -6675,7 +6724,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>343</v>
       </c>
@@ -6703,7 +6752,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>344</v>
       </c>
@@ -6728,7 +6777,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>345</v>
       </c>
@@ -6762,11 +6811,11 @@
       <c r="N119" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="T119" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>346</v>
       </c>
@@ -6783,7 +6832,7 @@
         <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>369</v>
@@ -6795,7 +6844,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>369</v>
@@ -6807,7 +6856,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>347</v>
       </c>
@@ -6830,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>369</v>
@@ -6842,7 +6891,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>348</v>
       </c>
@@ -6865,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>370</v>
@@ -6877,7 +6926,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>349</v>
       </c>
@@ -6912,7 +6961,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>350</v>
       </c>
@@ -6941,7 +6990,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>369</v>
@@ -6953,7 +7002,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>351</v>
       </c>
@@ -6982,7 +7031,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>369</v>
@@ -6993,11 +7042,11 @@
       <c r="N125" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q125" s="2" t="s">
+      <c r="T125" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>352</v>
       </c>
@@ -7026,7 +7075,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>369</v>
@@ -7038,7 +7087,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>353</v>
       </c>
@@ -7069,11 +7118,11 @@
       <c r="N127" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q127" s="2" t="s">
+      <c r="T127" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>354</v>
       </c>
@@ -7096,7 +7145,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>369</v>
@@ -7108,7 +7157,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>355</v>
       </c>
@@ -7140,7 +7189,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>356</v>
       </c>
@@ -7169,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>369</v>
@@ -7181,7 +7230,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>357</v>
       </c>
@@ -7210,7 +7259,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>369</v>
@@ -7222,7 +7271,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>358</v>
       </c>
@@ -7254,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>369</v>
@@ -7266,10 +7315,10 @@
         <v>460</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>359</v>
       </c>
@@ -7308,7 +7357,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>360</v>
       </c>
@@ -7326,7 +7375,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>369</v>
@@ -7347,7 +7396,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>361</v>
       </c>
@@ -7377,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>369</v>
@@ -7389,7 +7438,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>362</v>
       </c>
@@ -7406,7 +7455,7 @@
         <v>43</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>369</v>
@@ -7427,7 +7476,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
@@ -7462,7 +7511,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>364</v>
       </c>
@@ -7490,11 +7539,11 @@
       <c r="N138" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q138" s="2" t="s">
+      <c r="T138" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>365</v>
       </c>
@@ -7528,8 +7577,11 @@
       <c r="N139" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="Q139" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>366</v>
       </c>
@@ -7552,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>369</v>
@@ -7564,7 +7616,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>367</v>
       </c>
@@ -7598,11 +7650,11 @@
       <c r="N141" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q141" s="2" t="s">
+      <c r="T141" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>376</v>
       </c>
@@ -7613,7 +7665,7 @@
         <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>369</v>
@@ -7633,11 +7685,11 @@
       <c r="N142" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q142" s="12" t="s">
+      <c r="T142" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>408</v>
       </c>
@@ -7668,11 +7720,11 @@
       <c r="N143" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q143" s="2" t="s">
+      <c r="T143" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>409</v>
       </c>
@@ -7700,11 +7752,11 @@
       <c r="N144" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q144" s="2" t="s">
+      <c r="T144" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>410</v>
       </c>
@@ -7732,11 +7784,11 @@
       <c r="N145" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q145" s="2" t="s">
+      <c r="T145" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>418</v>
       </c>
@@ -7744,7 +7796,7 @@
         <v>414</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>369</v>
@@ -7756,7 +7808,7 @@
         <v>468</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>369</v>
@@ -7767,19 +7819,19 @@
       <c r="N146" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q146" s="2" t="s">
+      <c r="T146" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>369</v>
@@ -7791,7 +7843,7 @@
         <v>379</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>369</v>
@@ -7803,7 +7855,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>422</v>
       </c>
@@ -7817,7 +7869,7 @@
         <v>427</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>369</v>
@@ -7838,7 +7890,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>462</v>
       </c>
@@ -7866,19 +7918,19 @@
       <c r="N149" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q149" s="2" t="s">
+      <c r="T149" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>369</v>
@@ -7890,7 +7942,7 @@
         <v>429</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>369</v>
@@ -7902,15 +7954,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>369</v>
@@ -7919,10 +7971,10 @@
         <v>420</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>369</v>
@@ -7934,15 +7986,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>369</v>
@@ -7954,7 +8006,7 @@
         <v>469</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>369</v>
@@ -7966,15 +8018,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>369</v>
@@ -7983,10 +8035,10 @@
         <v>420</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>369</v>
@@ -7997,10 +8049,13 @@
       <c r="N153" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q153" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>414</v>
@@ -8015,7 +8070,7 @@
         <v>420</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>369</v>
@@ -8027,21 +8082,21 @@
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>369</v>
@@ -8054,7 +8109,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U155" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
     <sortCondition ref="E2:E146"/>
     <sortCondition ref="I2:I146"/>

--- a/src/sastadev/data/methods/TARSP Index Current.xlsx
+++ b/src/sastadev/data/methods/TARSP Index Current.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a3248526/git/sastadev_package/src/sastadev/data/methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926554C8-974B-46AE-ADF1-DF9D945A5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF9460-DD07-BE4F-A324-F3DF9438DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$155</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="598">
   <si>
     <t>Item</t>
   </si>
@@ -1917,6 +1917,9 @@
   </si>
   <si>
     <t>tarsp2005</t>
+  </si>
+  <si>
+    <t>Literal</t>
   </si>
 </sst>
 </file>
@@ -2003,23 +2006,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2335,34 +2335,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U155"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="P139" sqref="P139"/>
+      <selection pane="bottomRight" activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="18.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="41.1640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="16.21875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="20" width="16.1640625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2406,25 +2406,28 @@
         <v>459</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -2467,11 +2470,11 @@
       <c r="N2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -2508,11 +2511,11 @@
       <c r="N3" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -2549,11 +2552,11 @@
       <c r="N4" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
@@ -2587,11 +2590,11 @@
       <c r="N5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>233</v>
       </c>
@@ -2625,14 +2628,14 @@
       <c r="N6" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>234</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>235</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>236</v>
       </c>
@@ -2742,11 +2745,11 @@
       <c r="N9" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>237</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>238</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>239</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>240</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>242</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>243</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>244</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>245</v>
       </c>
@@ -3063,11 +3066,11 @@
       <c r="N18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>246</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>247</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>248</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>249</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>250</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
@@ -3291,11 +3294,11 @@
       <c r="N24" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>252</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>253</v>
       </c>
@@ -3361,11 +3364,11 @@
       <c r="N26" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>254</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>255</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -3469,11 +3472,11 @@
       <c r="N29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>257</v>
       </c>
@@ -3507,11 +3510,11 @@
       <c r="N30" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>258</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>259</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>260</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>261</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>262</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>263</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>265</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>266</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -3875,11 +3878,11 @@
       <c r="N40" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="U40" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>268</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>269</v>
       </c>
@@ -3951,11 +3954,11 @@
       <c r="N42" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="U42" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>270</v>
       </c>
@@ -3995,11 +3998,11 @@
       <c r="N43" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="U43" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>271</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>274</v>
       </c>
@@ -4144,11 +4147,11 @@
       <c r="N47" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="U47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>275</v>
       </c>
@@ -4173,11 +4176,11 @@
       <c r="N48" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T48" s="6" t="s">
+      <c r="U48" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>276</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>277</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>278</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>279</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>280</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>281</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>282</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -4459,11 +4462,11 @@
       <c r="N56" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>284</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>286</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>287</v>
       </c>
@@ -4617,11 +4620,11 @@
       <c r="N60" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="R60" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>288</v>
       </c>
@@ -4655,11 +4658,11 @@
       <c r="N61" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="U61" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>289</v>
       </c>
@@ -4693,11 +4696,11 @@
       <c r="N62" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="U62" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>290</v>
       </c>
@@ -4731,11 +4734,11 @@
       <c r="N63" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="U63" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>291</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>292</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>293</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>294</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>296</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>297</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>298</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>299</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>301</v>
       </c>
@@ -5173,11 +5176,11 @@
       <c r="N74" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="R74" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>302</v>
       </c>
@@ -5208,11 +5211,11 @@
       <c r="N75" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="R75" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
@@ -5246,11 +5249,11 @@
       <c r="N76" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T76" s="2" t="s">
+      <c r="U76" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>304</v>
       </c>
@@ -5291,7 +5294,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>305</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>306</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>307</v>
       </c>
@@ -5404,11 +5407,11 @@
       <c r="N80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>308</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>309</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>310</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="128" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>311</v>
       </c>
@@ -5544,11 +5547,11 @@
       <c r="N84" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="R84" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>312</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>314</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>315</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>316</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>317</v>
       </c>
@@ -5752,7 +5755,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>404</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>319</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>320</v>
       </c>
@@ -5894,11 +5897,11 @@
       <c r="N94" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T94" s="2" t="s">
+      <c r="U94" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>321</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>322</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>323</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>324</v>
       </c>
@@ -6037,11 +6040,11 @@
       <c r="N98" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q98" s="2" t="s">
+      <c r="R98" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>325</v>
       </c>
@@ -6078,11 +6081,11 @@
       <c r="N99" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O99" s="2" t="s">
+      <c r="P99" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>326</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>327</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>328</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>329</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>330</v>
       </c>
@@ -6262,17 +6265,17 @@
       <c r="N104" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O104" s="2" t="s">
+      <c r="P104" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="R104" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="T104" s="2" t="s">
+      <c r="U104" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
@@ -6285,10 +6288,10 @@
       <c r="H105" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K105" s="11" t="s">
+      <c r="K105" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="L105" s="13" t="s">
+      <c r="L105" s="10" t="s">
         <v>370</v>
       </c>
       <c r="M105" s="2" t="s">
@@ -6297,11 +6300,11 @@
       <c r="N105" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T105" s="2" t="s">
+      <c r="U105" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>332</v>
       </c>
@@ -6341,11 +6344,11 @@
       <c r="N106" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T106" s="2" t="s">
+      <c r="U106" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>333</v>
       </c>
@@ -6382,11 +6385,11 @@
       <c r="N107" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T107" s="2" t="s">
+      <c r="U107" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>334</v>
       </c>
@@ -6423,14 +6426,14 @@
       <c r="N108" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O108" s="2" t="s">
+      <c r="P108" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="T108" s="2" t="s">
+      <c r="U108" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>336</v>
       </c>
@@ -6487,8 +6490,8 @@
       <c r="J110" s="2">
         <v>7</v>
       </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="10" t="s">
+      <c r="K110" s="7"/>
+      <c r="L110" s="2" t="s">
         <v>369</v>
       </c>
       <c r="M110" s="2" t="s">
@@ -6497,11 +6500,11 @@
       <c r="N110" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="R110" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>337</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>338</v>
       </c>
@@ -6571,11 +6574,11 @@
       <c r="N112" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T112" s="3" t="s">
+      <c r="U112" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>339</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>340</v>
       </c>
@@ -6645,7 +6648,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>341</v>
       </c>
@@ -6679,11 +6682,11 @@
       <c r="N115" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T115" s="2" t="s">
+      <c r="U115" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>342</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>343</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>344</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>345</v>
       </c>
@@ -6811,11 +6814,11 @@
       <c r="N119" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T119" s="2" t="s">
+      <c r="U119" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>346</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>347</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>348</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>349</v>
       </c>
@@ -6948,10 +6951,10 @@
       <c r="J123" s="2">
         <v>5</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L123" s="4" t="s">
         <v>369</v>
       </c>
       <c r="M123" s="2" t="s">
@@ -6961,7 +6964,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>350</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>351</v>
       </c>
@@ -7042,11 +7045,11 @@
       <c r="N125" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T125" s="2" t="s">
+      <c r="U125" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>352</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>353</v>
       </c>
@@ -7118,11 +7121,11 @@
       <c r="N127" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T127" s="2" t="s">
+      <c r="U127" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>354</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>355</v>
       </c>
@@ -7189,7 +7192,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>356</v>
       </c>
@@ -7230,7 +7233,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>357</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>358</v>
       </c>
@@ -7314,11 +7317,11 @@
       <c r="N132" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O132" s="2" t="s">
+      <c r="P132" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>359</v>
       </c>
@@ -7331,10 +7334,9 @@
       <c r="E133" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F133" s="10" t="s">
+      <c r="F133" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
         <v>369</v>
       </c>
@@ -7357,7 +7359,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>360</v>
       </c>
@@ -7373,8 +7375,7 @@
       <c r="E134" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10" t="s">
+      <c r="G134" s="2" t="s">
         <v>532</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -7396,7 +7397,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>361</v>
       </c>
@@ -7409,13 +7410,12 @@
       <c r="D135" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G135" s="10"/>
       <c r="H135" s="2" t="s">
         <v>369</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>362</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>364</v>
       </c>
@@ -7539,11 +7539,11 @@
       <c r="N138" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T138" s="2" t="s">
+      <c r="U138" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>365</v>
       </c>
@@ -7577,11 +7577,11 @@
       <c r="N139" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q139" s="2" t="s">
+      <c r="R139" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>366</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>367</v>
       </c>
@@ -7650,11 +7650,11 @@
       <c r="N141" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T141" s="2" t="s">
+      <c r="U141" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>376</v>
       </c>
@@ -7685,11 +7685,11 @@
       <c r="N142" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T142" s="12" t="s">
+      <c r="U142" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>408</v>
       </c>
@@ -7720,11 +7720,11 @@
       <c r="N143" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T143" s="2" t="s">
+      <c r="U143" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>409</v>
       </c>
@@ -7752,11 +7752,11 @@
       <c r="N144" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T144" s="2" t="s">
+      <c r="U144" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>410</v>
       </c>
@@ -7784,11 +7784,11 @@
       <c r="N145" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T145" s="2" t="s">
+      <c r="U145" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>418</v>
       </c>
@@ -7819,11 +7819,11 @@
       <c r="N146" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T146" s="2" t="s">
+      <c r="U146" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>474</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>422</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>462</v>
       </c>
@@ -7918,11 +7918,11 @@
       <c r="N149" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T149" s="2" t="s">
+      <c r="U149" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>476</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>477</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>478</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>479</v>
       </c>
@@ -8049,11 +8049,11 @@
       <c r="N153" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q153" s="2" t="s">
+      <c r="R153" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>484</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>510</v>
       </c>
@@ -8109,7 +8109,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U155" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:V155" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="7"/>

--- a/src/sastadev/data/methods/TARSP Index Current.xlsx
+++ b/src/sastadev/data/methods/TARSP Index Current.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE39AF-ABBE-4A45-B26A-A61DDCD0FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C161CCD3-D5AC-4E71-8B98-D03566158219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$156</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="599">
   <si>
     <t>Item</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Zn</t>
   </si>
   <si>
-    <t>Bv / B</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>41;42</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>V (meewerkend)</t>
@@ -653,9 +647,6 @@
     <t>VVW</t>
   </si>
   <si>
-    <t>//node[@cat="top" and node[@pt='ww'] and count(node)=1]</t>
-  </si>
-  <si>
     <t>star removed</t>
   </si>
   <si>
@@ -710,31 +701,7 @@
     <t>implies</t>
   </si>
   <si>
-    <t>Ond,B,VC</t>
-  </si>
-  <si>
-    <t>Ond,W,VC</t>
-  </si>
-  <si>
-    <t>Ond,W,B</t>
-  </si>
-  <si>
-    <t>Ond,W,B,VC</t>
-  </si>
-  <si>
     <t>Ond,VC</t>
-  </si>
-  <si>
-    <t>Ond,W</t>
-  </si>
-  <si>
-    <t>Ond,B</t>
-  </si>
-  <si>
-    <t>W,Ond</t>
-  </si>
-  <si>
-    <t>VC,W</t>
   </si>
   <si>
     <t>T001</t>
@@ -1550,9 +1517,6 @@
     <t>zijn moet er bij maar niet als het Kop is (en dat is nu zo)</t>
   </si>
   <si>
-    <t>S1W</t>
-  </si>
-  <si>
     <t>//node[(@rel='--' or @rel="nucl") and count(node) = 2 and node[ @lemma!="niet"] and 
        (node[@lemma="niet" ] or 
 	    node[@cat="advp" and node[@lemma="niet"] ]
@@ -1642,12 +1606,6 @@
        node[@rel="obj1" and 
             ( (@pt="vz" or @pt="bw") or 
               (%Rpronoun% and @begin=../node[@rel="hd"]/@end)) ]]</t>
-  </si>
-  <si>
-    <t>//node[@cat="top" and 
-      (node[@pt="n" or (@pt="tw" and @numtype="hoofd") or (@lemma="paar" and @pt="lid")] or 
-       node[@cat="du" and node[@pt="n" or (@pt="tw" and @numtype="hoofd") or (@lemma="paar" and @pt="lid")]]) and 
-      count(.//node[%realnode%])=1]</t>
   </si>
   <si>
     <t xml:space="preserve">//node[@cat="top" and node[@pt='adj' or @pt='bw' or @pt='vz'] and 
@@ -1683,12 +1641,6 @@
     <t>v.u.soc.divers,vu divers,vu soc divers, DIV</t>
   </si>
   <si>
-    <t>B,B</t>
-  </si>
-  <si>
-    <t>W,Ond,B</t>
-  </si>
-  <si>
     <t>(W)deel</t>
   </si>
   <si>
@@ -1711,12 +1663,6 @@
   </si>
   <si>
     <t>//node[%complement% and parent::node[(@cat="smain" or @cat="sv1" or @cat="ssub" or @cat="inf" or @cat="ppart") ]]</t>
-  </si>
-  <si>
-    <t>Ond,W,VC,VC</t>
-  </si>
-  <si>
-    <t>W,B, VC</t>
   </si>
   <si>
     <t>//node[((@pt="vg" and 
@@ -1862,12 +1808,6 @@
     <t>vn ov,ovvw6</t>
   </si>
   <si>
-    <t>B,W,Ond, B, B</t>
-  </si>
-  <si>
-    <t>Ond,W,B,B</t>
-  </si>
-  <si>
     <t>//node[%FullOnd%]</t>
   </si>
   <si>
@@ -1920,6 +1860,66 @@
   </si>
   <si>
     <t>literal</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Bv / B, B</t>
+  </si>
+  <si>
+    <t>Ond,RB</t>
+  </si>
+  <si>
+    <t>Ond,RB,VC</t>
+  </si>
+  <si>
+    <t>Ond,RW</t>
+  </si>
+  <si>
+    <t>Ond,RW,RB</t>
+  </si>
+  <si>
+    <t>Ond,RW,RB,RB</t>
+  </si>
+  <si>
+    <t>Ond,RW,RB,VC</t>
+  </si>
+  <si>
+    <t>Ond,RW,VC</t>
+  </si>
+  <si>
+    <t>Ond,RW,VC,VC</t>
+  </si>
+  <si>
+    <t>VC,RW</t>
+  </si>
+  <si>
+    <t>RW,Ond,RB</t>
+  </si>
+  <si>
+    <t>RW,RB, VC</t>
+  </si>
+  <si>
+    <t>RW,Ond</t>
+  </si>
+  <si>
+    <t>RB,RB,RW</t>
+  </si>
+  <si>
+    <t>RB,RW,Ond, RB, RB</t>
+  </si>
+  <si>
+    <t>RB, RW</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww"]/ancestor::node[@cat="top" and count(.//node[%realnode%]) = 1 ]</t>
+  </si>
+  <si>
+    <t>//node[@pt="n"]/ancestor::node[@cat="top" and  count(.//node[%realnode%])=1]</t>
   </si>
 </sst>
 </file>
@@ -2337,15 +2337,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:V155"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G109" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,93 +2366,93 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2462,39 +2461,39 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2503,77 +2502,77 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2">
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2582,36 +2581,36 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2620,39 +2619,39 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>580</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2661,36 +2660,36 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2699,36 +2698,36 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2737,36 +2736,36 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2775,36 +2774,36 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2813,36 +2812,36 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2851,33 +2850,33 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2886,36 +2885,36 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2924,33 +2923,33 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2959,62 +2958,62 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -3023,74 +3022,74 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J18" s="2">
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3099,65 +3098,65 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="J20" s="2">
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3166,33 +3165,33 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3201,39 +3200,39 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3242,112 +3241,112 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>14</v>
+        <v>596</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J24" s="2">
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3356,36 +3355,36 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3394,33 +3393,33 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3429,33 +3428,33 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3464,36 +3463,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3502,36 +3501,36 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3540,36 +3539,36 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3578,74 +3577,74 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J33" s="2">
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3654,33 +3653,33 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3689,33 +3688,33 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3724,33 +3723,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3759,74 +3758,80 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3835,71 +3840,74 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J40" s="2">
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3908,39 +3916,39 @@
         <v>3</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3949,39 +3957,39 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3990,36 +3998,36 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -4028,33 +4036,33 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4063,74 +4071,77 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J46" s="2">
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4139,100 +4150,100 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4241,33 +4252,33 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4276,71 +4287,71 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J52" s="2">
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4349,36 +4360,36 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4387,36 +4398,36 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4425,30 +4436,30 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4457,33 +4468,33 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4492,39 +4503,39 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>226</v>
+        <v>582</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4533,39 +4544,39 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>220</v>
+        <v>583</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4574,39 +4585,39 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4615,74 +4626,74 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="J61" s="2">
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4691,71 +4702,71 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J63" s="2">
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4764,39 +4775,39 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4805,39 +4816,39 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>225</v>
+        <v>584</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4846,39 +4857,39 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>222</v>
+        <v>585</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4887,39 +4898,39 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4928,39 +4939,39 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>223</v>
+        <v>587</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4969,39 +4980,39 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>221</v>
+        <v>588</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -5010,39 +5021,39 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5051,39 +5062,42 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>565</v>
+        <v>548</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5092,36 +5106,39 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>566</v>
+        <v>549</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5130,39 +5147,39 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5171,33 +5188,33 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5206,36 +5223,36 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5244,39 +5261,42 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>567</v>
+        <v>550</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5285,39 +5305,42 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>568</v>
+        <v>551</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5326,36 +5349,36 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5364,33 +5387,33 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5399,36 +5422,36 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5437,36 +5460,36 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5475,62 +5498,62 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5539,36 +5562,36 @@
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5577,62 +5600,62 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5641,33 +5664,33 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="216" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5676,33 +5699,33 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5711,36 +5734,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5749,141 +5772,141 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="J93" s="2">
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>228</v>
+        <v>590</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5892,39 +5915,39 @@
         <v>2</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5933,33 +5956,33 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5968,65 +5991,65 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -6035,36 +6058,36 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6073,39 +6096,39 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6114,33 +6137,33 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6149,33 +6172,33 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6184,74 +6207,74 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J103" s="2">
         <v>3</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6260,74 +6283,74 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="U104" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="H106" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6336,39 +6359,39 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6377,80 +6400,80 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J108" s="2">
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6459,33 +6482,33 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6495,69 +6518,69 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J111" s="2">
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6566,39 +6589,39 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6607,109 +6630,109 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J114" s="2">
         <v>1</v>
       </c>
-      <c r="K114" s="2" t="s">
-        <v>202</v>
+      <c r="K114" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J115" s="2">
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>8</v>
+        <v>579</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6718,130 +6741,130 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J119" s="2">
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>539</v>
+        <v>592</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6850,33 +6873,33 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6885,33 +6908,33 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="H122" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6920,33 +6943,33 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6955,39 +6978,39 @@
         <v>5</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>227</v>
+        <v>593</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -6996,39 +7019,39 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>227</v>
+        <v>593</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -7037,42 +7060,42 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>227</v>
+        <v>593</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7081,103 +7104,103 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I127" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="U127" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K127" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J128" s="2">
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7186,36 +7209,36 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="G130" s="2" t="s">
-        <v>8</v>
+        <v>579</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7224,39 +7247,39 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>8</v>
+        <v>579</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7265,42 +7288,42 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>8</v>
+        <v>579</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7309,40 +7332,40 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7351,120 +7374,122 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J134" s="2">
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G135" s="10"/>
+        <v>209</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>579</v>
+      </c>
       <c r="H135" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J135" s="2">
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7473,97 +7498,97 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J137" s="2">
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7572,36 +7597,36 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7610,33 +7635,33 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7645,483 +7670,481 @@
         <v>4</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="J142" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="U142" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="L142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="U142" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="E143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="U143" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I143" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="L143" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="U143" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J150" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="L144" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="U145" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L146" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="U146" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="L148" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L149" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="U149" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="B152" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K152" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="L150" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L151" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="L152" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K154" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K155" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="L154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M154" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N154" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K155" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="L155" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>461</v>
-      </c>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V155" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
     <sortCondition ref="E2:E146"/>
     <sortCondition ref="I2:I146"/>

--- a/src/sastadev/data/methods/TARSP Index Current.xlsx
+++ b/src/sastadev/data/methods/TARSP Index Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C161CCD3-D5AC-4E71-8B98-D03566158219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D1464-C95E-4A6C-B5AE-1349B8930190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1608,11 +1608,6 @@
               (%Rpronoun% and @begin=../node[@rel="hd"]/@end)) ]]</t>
   </si>
   <si>
-    <t xml:space="preserve">//node[@cat="top" and node[@pt='adj' or @pt='bw' or @pt='vz'] and 
-  count(.//node[%realnode%])=1]
-  </t>
-  </si>
-  <si>
     <t>//node[(node[@rel="mod" and %adjoradv%] and
        node[@rel="hd"  and %adjoradv%])     
    ]</t>
@@ -1920,6 +1915,11 @@
   </si>
   <si>
     <t>//node[@pt="n"]/ancestor::node[@cat="top" and  count(.//node[%realnode%])=1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[@cat="top" and .//node[@pt='adj' or @pt='bw' or @pt='vz'] and 
+  count(.//node[%realnode%])=1]
+  </t>
   </si>
 </sst>
 </file>
@@ -2340,11 +2340,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="L115" sqref="L115"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2408,22 +2408,22 @@
         <v>448</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2443,13 +2443,13 @@
         <v>197</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>358</v>
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>358</v>
@@ -2555,7 +2555,7 @@
         <v>449</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>358</v>
@@ -2648,7 +2648,7 @@
         <v>197</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>358</v>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>359</v>
@@ -2774,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>358</v>
@@ -2838,7 +2838,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>358</v>
@@ -2850,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>358</v>
@@ -2958,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>358</v>
@@ -3086,7 +3086,7 @@
         <v>396</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>358</v>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>509</v>
+        <v>598</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>358</v>
@@ -3229,7 +3229,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>358</v>
@@ -3241,7 +3241,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>358</v>
@@ -3273,7 +3273,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>358</v>
@@ -3285,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>358</v>
@@ -3297,7 +3297,7 @@
         <v>449</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3355,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>358</v>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>358</v>
@@ -3653,7 +3653,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>358</v>
@@ -3758,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>358</v>
@@ -3787,7 +3787,7 @@
         <v>214</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>358</v>
@@ -3799,7 +3799,7 @@
         <v>368</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>358</v>
@@ -3828,7 +3828,7 @@
         <v>215</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>358</v>
@@ -3840,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>358</v>
@@ -3866,7 +3866,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>358</v>
@@ -3998,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>358</v>
@@ -4036,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>358</v>
@@ -4103,7 +4103,7 @@
         <v>207</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>358</v>
@@ -4179,7 +4179,7 @@
         <v>359</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>359</v>
@@ -4477,7 +4477,7 @@
         <v>449</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>359</v>
@@ -4532,7 +4532,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>358</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>358</v>
@@ -4573,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>358</v>
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>358</v>
@@ -4635,7 +4635,7 @@
         <v>449</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4816,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>358</v>
@@ -4845,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>358</v>
@@ -4857,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>358</v>
@@ -4886,7 +4886,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>358</v>
@@ -4898,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>358</v>
@@ -4927,7 +4927,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>358</v>
@@ -4968,7 +4968,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>358</v>
@@ -5009,7 +5009,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>358</v>
@@ -5021,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>358</v>
@@ -5050,7 +5050,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>358</v>
@@ -5062,7 +5062,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>358</v>
@@ -5091,10 +5091,10 @@
         <v>412</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>358</v>
@@ -5132,10 +5132,10 @@
         <v>192</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>358</v>
@@ -5147,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>358</v>
@@ -5197,7 +5197,7 @@
         <v>449</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5232,7 +5232,7 @@
         <v>449</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5290,10 +5290,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>358</v>
@@ -5305,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>358</v>
@@ -5334,10 +5334,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>358</v>
@@ -5349,7 +5349,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>358</v>
@@ -5375,7 +5375,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>358</v>
@@ -5460,7 +5460,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>358</v>
@@ -5574,7 +5574,7 @@
         <v>449</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5687,7 +5687,7 @@
         <v>388</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>358</v>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>358</v>
@@ -5795,7 +5795,7 @@
         <v>389</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>358</v>
@@ -5833,7 +5833,7 @@
         <v>358</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>359</v>
@@ -5874,7 +5874,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>358</v>
@@ -5903,7 +5903,7 @@
         <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>358</v>
@@ -5944,7 +5944,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>358</v>
@@ -5956,7 +5956,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>358</v>
@@ -6023,7 +6023,7 @@
         <v>458</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>358</v>
@@ -6067,7 +6067,7 @@
         <v>449</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6172,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>358</v>
@@ -6207,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>358</v>
@@ -6295,7 +6295,7 @@
         <v>461</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>170</v>
@@ -6359,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>358</v>
@@ -6400,7 +6400,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>358</v>
@@ -6441,7 +6441,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>358</v>
@@ -6527,7 +6527,7 @@
         <v>449</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>358</v>
@@ -6589,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>358</v>
@@ -6650,7 +6650,7 @@
         <v>197</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>358</v>
@@ -6662,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>359</v>
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>358</v>
@@ -6729,7 +6729,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>358</v>
@@ -6861,7 +6861,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>358</v>
@@ -6873,7 +6873,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>358</v>
@@ -7007,7 +7007,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>358</v>
@@ -7019,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>358</v>
@@ -7048,7 +7048,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>358</v>
@@ -7060,7 +7060,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>358</v>
@@ -7092,7 +7092,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>358</v>
@@ -7104,7 +7104,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>358</v>
@@ -7174,7 +7174,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>358</v>
@@ -7235,7 +7235,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>358</v>
@@ -7247,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>358</v>
@@ -7276,7 +7276,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>358</v>
@@ -7288,7 +7288,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>358</v>
@@ -7320,7 +7320,7 @@
         <v>447</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>358</v>
@@ -7332,7 +7332,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>358</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>358</v>
@@ -7445,7 +7445,7 @@
         <v>209</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>358</v>
@@ -7486,7 +7486,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>358</v>
@@ -7609,7 +7609,7 @@
         <v>449</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>358</v>
@@ -7696,7 +7696,7 @@
         <v>198</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>358</v>
@@ -7900,7 +7900,7 @@
         <v>416</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>358</v>
@@ -8081,7 +8081,7 @@
         <v>450</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
